--- a/data/hotels_by_city/Houston/Houston_shard_611.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_611.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d239858-Reviews-Studio_6_Houston_Hobby-Houston_Texas.html</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-Hobby.h118944.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,141 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r356062802-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239858</t>
+  </si>
+  <si>
+    <t>356062802</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>It was close to work and home but that's about all I've got</t>
+  </si>
+  <si>
+    <t>I was just here for 2 weeks while my condo was renovated.  I got a great weekly rate ($235).  The room itself is small, plenty of outlets and lighting, and there is a kitchenette which I used regularly.  The problem is that their non-smoking rooms aren't really non-smoking.  Smoke and smells come in from other rooms and every time I walked into the room, it was bad.  When I moved back into my condo, the horrible smell was obvious on all of my clothes.  I couldn't even put them in my closet, and had to wash everything before putting it away (even if I hadn't worn it).  The other issue is that there is virtually zilch in the way of maid service. (I bought my own broom while I was there so I could keep the floor swept).  The maid comes in once a week, leaves towels on the bed or in the bathroom, sometimes takes away the old towels and sometimes doesn't.  If you want new towels before the week is up, you have to take your towels down to the office and trade them out.  Also, the maid didn't check up on my toilet paper situation, and I ran out of it. Good thing I had my own wipes to use that night and I went to the office the next morning.  The reason I chose this hotel is because it was equidistant from home and work, and...I was just here for 2 weeks while my condo was renovated.  I got a great weekly rate ($235).  The room itself is small, plenty of outlets and lighting, and there is a kitchenette which I used regularly.  The problem is that their non-smoking rooms aren't really non-smoking.  Smoke and smells come in from other rooms and every time I walked into the room, it was bad.  When I moved back into my condo, the horrible smell was obvious on all of my clothes.  I couldn't even put them in my closet, and had to wash everything before putting it away (even if I hadn't worn it).  The other issue is that there is virtually zilch in the way of maid service. (I bought my own broom while I was there so I could keep the floor swept).  The maid comes in once a week, leaves towels on the bed or in the bathroom, sometimes takes away the old towels and sometimes doesn't.  If you want new towels before the week is up, you have to take your towels down to the office and trade them out.  Also, the maid didn't check up on my toilet paper situation, and I ran out of it. Good thing I had my own wipes to use that night and I went to the office the next morning.  The reason I chose this hotel is because it was equidistant from home and work, and very close to decent restaurants (Schlotsky's, Olive Garden, TGI Friday's and Chili's within walking distance).  Now for the really really bad about this property:  My car was keyed one night (a 2-3" spot).  There appear to be people who "live" here and think certain parking spots are theirs, and if you come in late, the parking is iffy, at best.  I'm pretty positive there is drug activity at this property as well (I wouldn't say this lightly, it's a riff-raffy kinda place).  People also sometimes congregate on the landings and walkways to smoke and talk loudly.  I had a guest stay with me a few nights and was most comfortable there those nights, but as a single female, I didn't sleep that great on the nights I was alone.  I talked to another lady several rooms down from mine and she said she had several roaches the first morning she was there.  I didn't see one roach my entire stay, so that was good.  The wifi was some kind of joke.  They told me they charged for it but would give me the code for free.  It's a good thing, because it was unusable - the 4g on my phone worked waaaay better.  I couldn't wait to get back into my smoke free condo and comfy bed. This is no vacation spot.  If you're not trying to stay weekly and cheaply, pass this up and pay a little more elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Houston-Hobby, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>I was just here for 2 weeks while my condo was renovated.  I got a great weekly rate ($235).  The room itself is small, plenty of outlets and lighting, and there is a kitchenette which I used regularly.  The problem is that their non-smoking rooms aren't really non-smoking.  Smoke and smells come in from other rooms and every time I walked into the room, it was bad.  When I moved back into my condo, the horrible smell was obvious on all of my clothes.  I couldn't even put them in my closet, and had to wash everything before putting it away (even if I hadn't worn it).  The other issue is that there is virtually zilch in the way of maid service. (I bought my own broom while I was there so I could keep the floor swept).  The maid comes in once a week, leaves towels on the bed or in the bathroom, sometimes takes away the old towels and sometimes doesn't.  If you want new towels before the week is up, you have to take your towels down to the office and trade them out.  Also, the maid didn't check up on my toilet paper situation, and I ran out of it. Good thing I had my own wipes to use that night and I went to the office the next morning.  The reason I chose this hotel is because it was equidistant from home and work, and...I was just here for 2 weeks while my condo was renovated.  I got a great weekly rate ($235).  The room itself is small, plenty of outlets and lighting, and there is a kitchenette which I used regularly.  The problem is that their non-smoking rooms aren't really non-smoking.  Smoke and smells come in from other rooms and every time I walked into the room, it was bad.  When I moved back into my condo, the horrible smell was obvious on all of my clothes.  I couldn't even put them in my closet, and had to wash everything before putting it away (even if I hadn't worn it).  The other issue is that there is virtually zilch in the way of maid service. (I bought my own broom while I was there so I could keep the floor swept).  The maid comes in once a week, leaves towels on the bed or in the bathroom, sometimes takes away the old towels and sometimes doesn't.  If you want new towels before the week is up, you have to take your towels down to the office and trade them out.  Also, the maid didn't check up on my toilet paper situation, and I ran out of it. Good thing I had my own wipes to use that night and I went to the office the next morning.  The reason I chose this hotel is because it was equidistant from home and work, and very close to decent restaurants (Schlotsky's, Olive Garden, TGI Friday's and Chili's within walking distance).  Now for the really really bad about this property:  My car was keyed one night (a 2-3" spot).  There appear to be people who "live" here and think certain parking spots are theirs, and if you come in late, the parking is iffy, at best.  I'm pretty positive there is drug activity at this property as well (I wouldn't say this lightly, it's a riff-raffy kinda place).  People also sometimes congregate on the landings and walkways to smoke and talk loudly.  I had a guest stay with me a few nights and was most comfortable there those nights, but as a single female, I didn't sleep that great on the nights I was alone.  I talked to another lady several rooms down from mine and she said she had several roaches the first morning she was there.  I didn't see one roach my entire stay, so that was good.  The wifi was some kind of joke.  They told me they charged for it but would give me the code for free.  It's a good thing, because it was unusable - the 4g on my phone worked waaaay better.  I couldn't wait to get back into my smoke free condo and comfy bed. This is no vacation spot.  If you're not trying to stay weekly and cheaply, pass this up and pay a little more elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r305335884-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305335884</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Decent place but trouble from others</t>
+  </si>
+  <si>
+    <t>I stayed here for a night before my friend joined me and it is a decent place. There are quite a few shops around for any needs. Trouble with other inmates is what turned me off-a drunk person residing in my side room disturbed me few times during the night thus depriving me of a good night's sleep.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r216713199-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216713199</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Pleasant experience</t>
+  </si>
+  <si>
+    <t>I don't know what gives... I'm staying here as I write this review and just for smiles and giggles I decided to read the reviews. One of the reviewers states that there are no restaurants within walking distance (2/2009). That really got my goat, thus prompting this little impromptu retort. There's a Schlotzky's 100 feet away and an Olive Garden right after that! Across the street are other places to eat. Seriously, what's with these people flat out lying?!Anyways, I stay here while I wait to ship out in the merchant marines. It's nice, it's clean, it's pretty inexpensive. The only downside is the internet is slow, but it only cost me $5 for my entire stay. Oh, and unlike a regular Motel 6, the lobby doesn't have someone in it 24/7. The lobby closes down at night but there's a courtesy phone to call up whoever's on watch (for lack of a better expression).I like it here. I'd like to find a place closer to downtown, which is where I commute to, but the price and convenience make this place hard to beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I don't know what gives... I'm staying here as I write this review and just for smiles and giggles I decided to read the reviews. One of the reviewers states that there are no restaurants within walking distance (2/2009). That really got my goat, thus prompting this little impromptu retort. There's a Schlotzky's 100 feet away and an Olive Garden right after that! Across the street are other places to eat. Seriously, what's with these people flat out lying?!Anyways, I stay here while I wait to ship out in the merchant marines. It's nice, it's clean, it's pretty inexpensive. The only downside is the internet is slow, but it only cost me $5 for my entire stay. Oh, and unlike a regular Motel 6, the lobby doesn't have someone in it 24/7. The lobby closes down at night but there's a courtesy phone to call up whoever's on watch (for lack of a better expression).I like it here. I'd like to find a place closer to downtown, which is where I commute to, but the price and convenience make this place hard to beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r45600098-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>45600098</t>
+  </si>
+  <si>
+    <t>10/01/2009</t>
+  </si>
+  <si>
+    <t>Very nice hotel that has come along way since my last stay in 2008</t>
+  </si>
+  <si>
+    <t>This Hotel is now under new management and has really done some nice  cleaning up since my stay in 08. The staff is very nice and attentive. I also have to say the maintence man is wonderful.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r25229922-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25229922</t>
+  </si>
+  <si>
+    <t>02/26/2009</t>
+  </si>
+  <si>
+    <t>You have to see the picture!!!</t>
+  </si>
+  <si>
+    <t>A picture is worth a thousand words!!!#1 I arrived at midnight.  Had to use the courtesy phone and it took 15 minutes for someone to come and check me in even though I already had a reservation.#2 I was so tired i just walked in and laid down on the bed without even unpacking.#3 I dozed off but was awakened within 15 minutes. My back, my neck, my arms and legs below the knee where covered with fleas. I could see them jumping all over.#4 I jumped into the shower, put all my clothes in a plastic bag and changed. By then even my suitcases had fleas. Called the front desk.  The night lady was very courteous and did the best she could and she changed me from room 102 to another room.  #5 In the am I asked to see the manager very politely and showed the reception lady the flea bites.  She was RUDE and unpolite.  They did not offer any type of apology. I had to ask them for a refund of one night.VERY RUDE SHIFT MANAGER AND LADY DURING NOONTIME.  Also, hotel is nextto the freeway and there are no restaurants within walking distance.  Parking is an issue at night. You may end up parking far from your actual room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>A picture is worth a thousand words!!!#1 I arrived at midnight.  Had to use the courtesy phone and it took 15 minutes for someone to come and check me in even though I already had a reservation.#2 I was so tired i just walked in and laid down on the bed without even unpacking.#3 I dozed off but was awakened within 15 minutes. My back, my neck, my arms and legs below the knee where covered with fleas. I could see them jumping all over.#4 I jumped into the shower, put all my clothes in a plastic bag and changed. By then even my suitcases had fleas. Called the front desk.  The night lady was very courteous and did the best she could and she changed me from room 102 to another room.  #5 In the am I asked to see the manager very politely and showed the reception lady the flea bites.  She was RUDE and unpolite.  They did not offer any type of apology. I had to ask them for a refund of one night.VERY RUDE SHIFT MANAGER AND LADY DURING NOONTIME.  Also, hotel is nextto the freeway and there are no restaurants within walking distance.  Parking is an issue at night. You may end up parking far from your actual room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r16373559-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16373559</t>
+  </si>
+  <si>
+    <t>05/24/2008</t>
+  </si>
+  <si>
+    <t>Splendid Stay</t>
+  </si>
+  <si>
+    <t>The hotel is clean,comfortable &amp; safe.The front desk staff is really curteous and helpful.In short,its like home away from home and i fully recommend that if you visit houston,look no further,stay at studio 6,hobby and you'll have a memorable stay at an excellent price.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +676,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +708,469 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_611.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_611.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r595512894-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239858</t>
+  </si>
+  <si>
+    <t>595512894</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Studio 6 is great when you meet Ms.Ann</t>
+  </si>
+  <si>
+    <t>Ms.Ann at 220 bammel west field studio is such a great lady.Very kind,Caring and passionate about her work,She made my stay enjoyable my daughter love her so much.Always willing to help and she provides solutions to all our every day need as a needy pregnant woman.i would recommend studio 6 because of Ms.Ann she deserves award and much more..I definitely will recommend studio 6 as long as she works there.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r566297044-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566297044</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>I've read some of the other reviews and must stay i disagree with some of them. I am a frequent visitor to the Houston area due to business. I've stayed in many hotels in the n Hobby Airport area, and I find Studio 6 to be the best one. I stayed in the very back of the hotel. and felt comfortable. I did see people outside, but nothing seemed wrong with that it is a hotel and people do need fresh air. I never once saw any roaches, however i did see termix pest control. Rooms were nicely put together. kitchenette came with pots, pans, and dishes. The hotel staff from the front desk to the housekeeping were extremely polite. Location of hotel is awesome.... there are several restaurants and stores within walking distance.I will most definitely be staying here next time I'm in Houston and would recommend it to others.#HappyCamperMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I've read some of the other reviews and must stay i disagree with some of them. I am a frequent visitor to the Houston area due to business. I've stayed in many hotels in the n Hobby Airport area, and I find Studio 6 to be the best one. I stayed in the very back of the hotel. and felt comfortable. I did see people outside, but nothing seemed wrong with that it is a hotel and people do need fresh air. I never once saw any roaches, however i did see termix pest control. Rooms were nicely put together. kitchenette came with pots, pans, and dishes. The hotel staff from the front desk to the housekeeping were extremely polite. Location of hotel is awesome.... there are several restaurants and stores within walking distance.I will most definitely be staying here next time I'm in Houston and would recommend it to others.#HappyCamperMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r356062802-Studio_6_Houston_Hobby-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>239858</t>
-  </si>
-  <si>
     <t>356062802</t>
   </si>
   <si>
@@ -228,6 +273,45 @@
     <t>I don't know what gives... I'm staying here as I write this review and just for smiles and giggles I decided to read the reviews. One of the reviewers states that there are no restaurants within walking distance (2/2009). That really got my goat, thus prompting this little impromptu retort. There's a Schlotzky's 100 feet away and an Olive Garden right after that! Across the street are other places to eat. Seriously, what's with these people flat out lying?!Anyways, I stay here while I wait to ship out in the merchant marines. It's nice, it's clean, it's pretty inexpensive. The only downside is the internet is slow, but it only cost me $5 for my entire stay. Oh, and unlike a regular Motel 6, the lobby doesn't have someone in it 24/7. The lobby closes down at night but there's a courtesy phone to call up whoever's on watch (for lack of a better expression).I like it here. I'd like to find a place closer to downtown, which is where I commute to, but the price and convenience make this place hard to beat.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r144780527-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144780527</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Rude and dirty..</t>
+  </si>
+  <si>
+    <t>I will never stay here again. At check the front desk clerk was very rude and then once i got my room and went in it was an old smell in the room. The blanket had burn holes them. I over looked it since it was only one night. I just rooled it back and used the other to sit on. Once settled I went to shower when i grabbed the wsh cloth it was a weird color so i got the towel and opene it and it looked dirty.  They didnt smell clean... really had no fresh smell at all but didnt stink. As far going back... no.. no... no... never..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I will never stay here again. At check the front desk clerk was very rude and then once i got my room and went in it was an old smell in the room. The blanket had burn holes them. I over looked it since it was only one night. I just rooled it back and used the other to sit on. Once settled I went to shower when i grabbed the wsh cloth it was a weird color so i got the towel and opene it and it looked dirty.  They didnt smell clean... really had no fresh smell at all but didnt stink. As far going back... no.. no... no... never..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r101322620-Studio_6_Houston_Hobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>101322620</t>
+  </si>
+  <si>
+    <t>03/23/2011</t>
+  </si>
+  <si>
+    <t>Disappointing!</t>
+  </si>
+  <si>
+    <t>Desk clerk made you feel you were doing her a favor by staying there. Coffee cup  had a lipstick stain on it. Sheet clean but with cigarette holes in it.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r45600098-Studio_6_Houston_Hobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -244,9 +328,6 @@
   </si>
   <si>
     <t>August 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239858-r25229922-Studio_6_Houston_Hobby-Houston_Texas.html</t>
@@ -817,7 +898,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -825,29 +906,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -863,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -872,37 +943,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -926,7 +997,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -935,45 +1006,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -998,41 +1073,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
         <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1040,7 +1111,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1127,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1065,41 +1136,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1107,7 +1174,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1190,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1132,37 +1199,41 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1170,7 +1241,271 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31359</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
